--- a/testExcel.xlsx
+++ b/testExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CD$93</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1834">
   <si>
     <t>BM_no</t>
   </si>
@@ -5618,6 +5618,9 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>PLTs</t>
   </si>
 </sst>
 </file>
@@ -6056,7 +6059,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6266,7 +6268,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
@@ -6739,11 +6741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-20726112"/>
-        <c:axId val="-20715232"/>
+        <c:axId val="-1743674112"/>
+        <c:axId val="-1743684448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-20726112"/>
+        <c:axId val="-1743674112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,12 +6802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-20715232"/>
+        <c:crossAx val="-1743684448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-20715232"/>
+        <c:axId val="-1743684448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6862,7 +6864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-20726112"/>
+        <c:crossAx val="-1743674112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7388,6 +7390,9 @@
                 <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
@@ -7586,11 +7591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-20721216"/>
-        <c:axId val="-20728832"/>
+        <c:axId val="-1743681728"/>
+        <c:axId val="-1743686080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-20721216"/>
+        <c:axId val="-1743681728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7629,6 +7634,955 @@
                 <a:r>
                   <a:rPr lang="en-IN"/>
                   <a:t>WBC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1743686080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1743686080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Grading</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1743681728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>grading(VB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5980971128609024E-2"/>
+                  <c:y val="-0.47054097404491108"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBBB-4B32-9113-7D1405D6A1E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1743685536"/>
+        <c:axId val="-1743682272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1743685536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>HGB</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7693,12 +8647,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-20728832"/>
+        <c:crossAx val="-1743682272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-20728832"/>
+        <c:axId val="-1743682272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7801,954 +8755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-20721216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grading(VB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.5980971128609024E-2"/>
-                  <c:y val="-0.47054097404491108"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A$2:$A$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
-                <c:pt idx="0">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$B$2:$B$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FBBB-4B32-9113-7D1405D6A1E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-20728288"/>
-        <c:axId val="-20727744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-20728288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>HGB</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-20727744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-20727744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>Grading</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-20728288"/>
+        <c:crossAx val="-1743685536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8929,268 +8936,268 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>27000</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147000</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53000</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72000</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40000</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43000</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27000</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130000</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124000</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9000</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17000</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>304000</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97000</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49000</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40000</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42000</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84000</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9000</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21000</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213000</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>146000</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>183000</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>152000</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38000</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>232000</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37000</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34000</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122000</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>214000</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>94000</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>69000</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>531000</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1293000</c:v>
+                  <c:v>1293</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61000</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51000</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>148000</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>409000</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>345000</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>238000</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22000</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35000</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>289000</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37000</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>95000</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>31000</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>84000</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>88000</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>301000</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>102000</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>108000</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>31000</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>53000</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>508000</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98000</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31000</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>62000</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>78000</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>576000</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>58000</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>112000</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65000</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>109000</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>98000</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42000</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>331000</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>189000</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>553000</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>283000</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>131000</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>115000</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>154000</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>148000</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>37000</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>186000</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9280,6 +9287,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
@@ -9480,11 +9490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-20720128"/>
-        <c:axId val="-20719040"/>
+        <c:axId val="-1743678464"/>
+        <c:axId val="-1743680096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-20720128"/>
+        <c:axId val="-1743678464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9527,6 +9537,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9587,12 +9598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-20719040"/>
+        <c:crossAx val="-1743680096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-20719040"/>
+        <c:axId val="-1743680096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9635,6 +9646,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9695,7 +9707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-20720128"/>
+        <c:crossAx val="-1743678464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11996,7 +12008,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12037,7 +12049,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3918977C-FCA2-4AFA-97FE-7C2260CA1B80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3918977C-FCA2-4AFA-97FE-7C2260CA1B80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12080,7 +12092,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5E8573-CE1F-4F97-A433-3B91FA2240C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB5E8573-CE1F-4F97-A433-3B91FA2240C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12123,7 +12135,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB87F695-11B9-443A-8754-ADD3B28CCAE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB87F695-11B9-443A-8754-ADD3B28CCAE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33001,8 +33013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33236,7 +33248,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B29" s="47">
         <v>11.4</v>
@@ -33733,7 +33745,7 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33966,6 +33978,9 @@
       <c r="A29">
         <v>4300</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -33991,7 +34006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5300</v>
       </c>
@@ -33999,7 +34014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6900</v>
       </c>
@@ -34007,7 +34022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6200</v>
       </c>
@@ -34015,7 +34030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6200</v>
       </c>
@@ -34716,7 +34731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8.6999999999999993</v>
       </c>
@@ -34724,7 +34739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8.6999999999999993</v>
       </c>
@@ -34732,7 +34747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -34740,7 +34755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.8</v>
       </c>
@@ -35180,721 +35195,1079 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>27000</v>
+        <f>C2/1000</f>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">C3/1000</f>
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>147000</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>53000</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>72000</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>43000</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>27000</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>6000</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>130000</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>6000</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>124000</v>
+        <f t="shared" si="0"/>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>9000</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>20000</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>17000</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>304000</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>97000</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>49000</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>40000</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>42000</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>84000</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>9000</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>21000</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>213000</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>146000</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>183000</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>152000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
         <v>38000</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
         <v>5000</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>232000</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>37000</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
         <v>34000</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>122000</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>214000</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>94000</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
         <v>69000</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
         <v>531000</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>10000</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="0"/>
+        <v>1293</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1293000</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>61000</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>51000</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>148000</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
         <v>409000</v>
       </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
         <v>4000</v>
       </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
         <v>345000</v>
       </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>5000</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>238000</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>14000</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
         <v>22000</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>35000</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
         <v>289000</v>
       </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>37000</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>95000</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>31000</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>84000</v>
       </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>88000</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>301000</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>102000</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>108000</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
         <v>31000</v>
       </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>53000</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>10000</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>508000</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
         <v>98000</v>
       </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" ref="A67:A89" si="1">C67/1000</f>
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>12000</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
         <v>31000</v>
       </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>62000</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>78000</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>576000</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>58000</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
         <v>112000</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
         <v>65000</v>
       </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
         <v>24000</v>
       </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>109000</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>11000</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
         <v>98000</v>
       </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>42000</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
         <v>331000</v>
       </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
         <v>189000</v>
       </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="1"/>
+        <v>553</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>553000</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>283000</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>131000</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>115000</v>
       </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
         <v>154000</v>
       </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
         <v>148000</v>
       </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>37000</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <v>186000</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
